--- a/data/trans_bre/P12_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,45</t>
+          <t>0,53; 5,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 1,49</t>
+          <t>-3,88; 1,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,69</t>
+          <t>0,9; 5,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 8,1</t>
+          <t>-2,49; 7,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,5; 402,04</t>
+          <t>10,27; 419,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-65,68; 51,25</t>
+          <t>-66,18; 53,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,94; 739,68</t>
+          <t>18,9; 732,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-50,79; 330,04</t>
+          <t>-42,01; 361,38</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 7,73</t>
+          <t>2,55; 7,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 3,96</t>
+          <t>-1,53; 4,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 3,5</t>
+          <t>-1,77; 3,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 5,96</t>
+          <t>-3,04; 6,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,0; 325,63</t>
+          <t>52,89; 316,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 100,6</t>
+          <t>-25,69; 111,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,09; 85,55</t>
+          <t>-27,7; 84,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,38; 94,65</t>
+          <t>-30,55; 98,05</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 4,7</t>
+          <t>-0,45; 4,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 8,08</t>
+          <t>2,16; 8,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 3,71</t>
+          <t>-1,38; 3,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 4,41</t>
+          <t>-1,67; 4,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 131,9</t>
+          <t>-10,48; 132,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,8; 156,68</t>
+          <t>28,53; 168,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 104,6</t>
+          <t>-24,05; 102,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,12; 69,76</t>
+          <t>-17,28; 72,24</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 7,19</t>
+          <t>0,33; 6,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,77; 11,51</t>
+          <t>3,24; 11,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 4,03</t>
+          <t>-2,89; 4,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 5,58</t>
+          <t>-1,55; 5,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,56; 234,96</t>
+          <t>2,71; 196,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,33; 157,38</t>
+          <t>27,21; 152,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,38; 46,19</t>
+          <t>-24,0; 49,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 73,7</t>
+          <t>-11,9; 69,93</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 6,16</t>
+          <t>-1,56; 5,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 9,94</t>
+          <t>0,56; 10,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,34; 12,95</t>
+          <t>3,06; 12,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 8,68</t>
+          <t>1,66; 8,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 116,58</t>
+          <t>-18,93; 106,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 109,47</t>
+          <t>4,18; 117,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,08; 155,44</t>
+          <t>23,12; 142,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,7; 83,62</t>
+          <t>11,46; 85,06</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 5,75</t>
+          <t>-1,18; 5,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,33; 12,94</t>
+          <t>4,52; 13,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,15; 14,1</t>
+          <t>6,3; 13,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 7,5</t>
+          <t>-3,3; 7,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 71,56</t>
+          <t>-10,24; 74,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,48; 112,78</t>
+          <t>27,07; 119,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,01; 151,88</t>
+          <t>49,27; 155,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 47,38</t>
+          <t>-16,98; 47,72</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,74</t>
+          <t>2,14; 4,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,76</t>
+          <t>3,63; 6,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,85</t>
+          <t>2,77; 5,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,05</t>
+          <t>1,48; 5,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>41,28; 107,41</t>
+          <t>36,65; 104,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>42,26; 92,4</t>
+          <t>41,44; 89,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,84; 86,69</t>
+          <t>33,78; 84,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,38; 50,48</t>
+          <t>12,92; 50,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,48</t>
+          <t>0,69; 5,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 1,44</t>
+          <t>-3,62; 1,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,99</t>
+          <t>1,12; 6,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,27; 419,39</t>
+          <t>12,33; 410,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-66,18; 53,42</t>
+          <t>-63,84; 48,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,9; 732,47</t>
+          <t>19,87; 821,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 7,67</t>
+          <t>2,42; 7,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 4,04</t>
+          <t>-1,37; 3,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 3,45</t>
+          <t>-2,16; 3,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,89; 316,25</t>
+          <t>61,04; 328,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,69; 111,45</t>
+          <t>-23,68; 103,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,7; 84,65</t>
+          <t>-32,9; 94,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 4,45</t>
+          <t>-0,67; 4,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 8,19</t>
+          <t>1,83; 7,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,53</t>
+          <t>-1,19; 3,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 132,9</t>
+          <t>-12,59; 130,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,53; 168,02</t>
+          <t>21,89; 155,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,05; 102,98</t>
+          <t>-21,55; 114,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 6,9</t>
+          <t>1,03; 7,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,24; 11,3</t>
+          <t>3,24; 11,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,33</t>
+          <t>-3,1; 4,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 196,06</t>
+          <t>11,58; 220,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,21; 152,42</t>
+          <t>28,89; 153,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,0; 49,99</t>
+          <t>-25,08; 49,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 5,86</t>
+          <t>-1,91; 6,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 10,4</t>
+          <t>0,4; 9,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 12,1</t>
+          <t>2,86; 12,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 106,09</t>
+          <t>-21,44; 110,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,18; 117,09</t>
+          <t>2,61; 111,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,12; 142,66</t>
+          <t>21,09; 146,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 5,99</t>
+          <t>-1,49; 6,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,52; 13,44</t>
+          <t>4,32; 13,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,3; 13,85</t>
+          <t>6,09; 13,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 74,86</t>
+          <t>-12,26; 73,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,07; 119,46</t>
+          <t>25,69; 113,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,27; 155,02</t>
+          <t>49,26; 153,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,79</t>
+          <t>2,22; 4,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,74</t>
+          <t>3,56; 6,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,69</t>
+          <t>2,76; 5,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>36,65; 104,1</t>
+          <t>38,26; 99,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>41,44; 89,45</t>
+          <t>40,04; 90,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,78; 84,18</t>
+          <t>34,09; 86,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P12_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces</t>
+          <t>Población que se sintió desanimada y triste siempre, casi siempre o muchas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 5,69</t>
+          <t>0,62; 5,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 1,48</t>
+          <t>-3,81; 1,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,04</t>
+          <t>0,89; 5,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 7,87</t>
+          <t>-2,88; 8,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,33; 410,03</t>
+          <t>12,5; 402,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-63,84; 48,7</t>
+          <t>-65,68; 51,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,87; 821,11</t>
+          <t>22,94; 739,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-42,01; 361,38</t>
+          <t>-50,79; 330,04</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,64</t>
+          <t>2,46; 7,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 3,79</t>
+          <t>-1,28; 3,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 3,7</t>
+          <t>-1,95; 3,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 6,29</t>
+          <t>-3,58; 5,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>61,04; 328,49</t>
+          <t>54,0; 325,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 103,51</t>
+          <t>-23,25; 100,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 94,69</t>
+          <t>-30,09; 85,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,55; 98,05</t>
+          <t>-33,38; 94,65</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 4,51</t>
+          <t>-0,59; 4,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 7,87</t>
+          <t>1,57; 8,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,94</t>
+          <t>-1,08; 3,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 4,46</t>
+          <t>-2,08; 4,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 130,81</t>
+          <t>-11,2; 131,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,89; 155,65</t>
+          <t>17,8; 156,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-21,55; 114,4</t>
+          <t>-19,48; 104,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 72,24</t>
+          <t>-20,12; 69,76</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 7,28</t>
+          <t>1,02; 7,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,24; 11,42</t>
+          <t>3,77; 11,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 4,25</t>
+          <t>-3,32; 4,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 5,48</t>
+          <t>-1,61; 5,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,58; 220,88</t>
+          <t>13,56; 234,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,89; 153,39</t>
+          <t>34,33; 157,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,08; 49,31</t>
+          <t>-25,38; 46,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 69,93</t>
+          <t>-13,11; 73,7</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 6,06</t>
+          <t>-1,5; 6,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 9,95</t>
+          <t>0,14; 9,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 12,34</t>
+          <t>3,34; 12,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 8,74</t>
+          <t>1,66; 8,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 110,25</t>
+          <t>-18,68; 116,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,61; 111,58</t>
+          <t>0,77; 109,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,09; 146,72</t>
+          <t>23,08; 155,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,46; 85,06</t>
+          <t>11,7; 83,62</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 6,03</t>
+          <t>-1,59; 5,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,32; 13,06</t>
+          <t>4,33; 12,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,09; 13,84</t>
+          <t>6,15; 14,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 7,74</t>
+          <t>-4,08; 7,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 73,62</t>
+          <t>-12,4; 71,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,69; 113,62</t>
+          <t>26,48; 112,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,26; 153,4</t>
+          <t>49,01; 151,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 47,72</t>
+          <t>-18,95; 47,38</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,6</t>
+          <t>2,29; 4,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,56; 6,71</t>
+          <t>3,67; 6,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,78</t>
+          <t>2,86; 5,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,02</t>
+          <t>1,52; 5,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>38,26; 99,97</t>
+          <t>41,28; 107,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>40,04; 90,56</t>
+          <t>42,26; 92,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,09; 86,14</t>
+          <t>34,84; 86,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,92; 50,52</t>
+          <t>13,38; 50,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>56,04%</t>
+          <t>59,52%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 8,1</t>
+          <t>-2,85; 7,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-50,79; 330,04</t>
+          <t>-48,86; 376,05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>6,81%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 5,96</t>
+          <t>-5,1; 4,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,38; 94,65</t>
+          <t>-45,58; 79,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>17,79%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 4,41</t>
+          <t>-1,88; 4,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,12; 69,76</t>
+          <t>-18,63; 72,13</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>41,93%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 5,58</t>
+          <t>-1,18; 9,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 73,7</t>
+          <t>-12,64; 222,76</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>43,94%</t>
+          <t>45,29%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 8,68</t>
+          <t>1,78; 8,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,7; 83,62</t>
+          <t>12,17; 85,75</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,67</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,09</t>
+          <t>8,36</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>63,77%</t>
+          <t>50,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,93%</t>
+          <t>113,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>-10,55%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 5,75</t>
+          <t>-2,71; 7,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,33; 12,94</t>
+          <t>0,45; 11,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,15; 14,1</t>
+          <t>3,55; 13,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 7,5</t>
+          <t>-12,12; 5,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 71,56</t>
+          <t>-18,68; 97,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,48; 112,78</t>
+          <t>1,12; 118,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,01; 151,88</t>
+          <t>38,49; 261,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 47,38</t>
+          <t>-70,28; 46,67</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>10,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>10,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>67,32%</t>
+          <t>23,76%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>64,5%</t>
+          <t>70,15%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>59,11%</t>
+          <t>69,88%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>30,51%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-3,63; 6,96</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4,1; 17,07</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3,94; 17,04</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 10,92</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-31,84; 116,88</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>20,24; 151,95</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>23,44; 140,07</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 66,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3,41</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5,21</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4,36</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3,25</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>67,32%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>64,5%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>59,11%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>33,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,29; 4,74</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>3,67; 6,76</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>2,86; 5,85</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 5,05</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 5,54</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>41,28; 107,41</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>42,26; 92,4</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>34,84; 86,69</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>13,38; 50,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>8,04; 68,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P12_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,45</t>
+          <t>0,66; 5,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 1,49</t>
+          <t>-3,65; 1,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,69</t>
+          <t>0,79; 5,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 7,92</t>
+          <t>-2,81; 7,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,5; 402,04</t>
+          <t>8,14; 423,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-65,68; 51,25</t>
+          <t>-61,49; 70,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,94; 739,68</t>
+          <t>10,75; 673,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-48,86; 376,05</t>
+          <t>-56,18; 354,78</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 7,73</t>
+          <t>2,38; 7,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 3,96</t>
+          <t>-1,64; 3,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 3,5</t>
+          <t>-1,94; 3,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 4,74</t>
+          <t>-4,43; 5,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,0; 325,63</t>
+          <t>49,71; 303,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 100,6</t>
+          <t>-25,67; 104,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,09; 85,55</t>
+          <t>-30,27; 86,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,58; 79,97</t>
+          <t>-42,0; 83,25</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 4,7</t>
+          <t>-0,93; 4,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 8,08</t>
+          <t>2,18; 8,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 3,71</t>
+          <t>-1,03; 4,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 4,39</t>
+          <t>-1,73; 4,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 131,9</t>
+          <t>-15,48; 122,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,8; 156,68</t>
+          <t>26,34; 166,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 104,6</t>
+          <t>-19,88; 110,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 72,13</t>
+          <t>-19,69; 72,17</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 7,19</t>
+          <t>0,88; 7,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,77; 11,51</t>
+          <t>3,42; 11,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 4,03</t>
+          <t>-3,08; 3,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 9,17</t>
+          <t>-1,02; 8,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,56; 234,96</t>
+          <t>14,52; 222,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,33; 157,38</t>
+          <t>27,35; 150,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,38; 46,19</t>
+          <t>-24,57; 42,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 222,76</t>
+          <t>-9,07; 221,45</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 6,16</t>
+          <t>-1,85; 6,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 9,94</t>
+          <t>1,08; 10,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,34; 12,95</t>
+          <t>3,27; 12,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 8,6</t>
+          <t>1,82; 8,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 116,58</t>
+          <t>-20,27; 119,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 109,47</t>
+          <t>6,99; 111,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,08; 155,44</t>
+          <t>26,74; 154,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,17; 85,75</t>
+          <t>12,6; 85,64</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 7,81</t>
+          <t>-2,44; 7,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 11,63</t>
+          <t>0,71; 12,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,55; 13,48</t>
+          <t>3,88; 13,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 5,96</t>
+          <t>-10,28; 6,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 97,24</t>
+          <t>-18,02; 96,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,12; 118,5</t>
+          <t>0,96; 126,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>38,49; 261,15</t>
+          <t>35,04; 262,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-70,28; 46,67</t>
+          <t>-64,61; 46,55</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 6,96</t>
+          <t>-3,12; 7,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,1; 17,07</t>
+          <t>3,48; 17,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,94; 17,04</t>
+          <t>4,43; 16,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 10,92</t>
+          <t>1,31; 10,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-31,84; 116,88</t>
+          <t>-28,77; 121,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,24; 151,95</t>
+          <t>18,29; 156,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>23,44; 140,07</t>
+          <t>22,67; 136,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,9; 66,44</t>
+          <t>5,66; 64,29</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,74</t>
+          <t>2,15; 4,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,76</t>
+          <t>3,7; 6,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,85</t>
+          <t>2,98; 5,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,54</t>
+          <t>0,71; 5,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>41,28; 107,41</t>
+          <t>37,51; 103,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>42,26; 92,4</t>
+          <t>42,33; 88,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>34,84; 86,69</t>
+          <t>36,41; 85,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,04; 68,0</t>
+          <t>8,54; 69,49</t>
         </is>
       </c>
     </row>
